--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="18912" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="12792" windowHeight="6576"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -417,7 +418,7 @@
           <c:x val="7.4261381217349431E-2"/>
           <c:y val="7.3740535479704702E-2"/>
           <c:w val="0.78083130537451662"/>
-          <c:h val="0.83089630762737055"/>
+          <c:h val="0.83089630762737066"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -480,6 +481,9 @@
                 <c:pt idx="12">
                   <c:v>7390</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>7325</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -565,25 +569,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="127034112"/>
-        <c:axId val="127035648"/>
+        <c:axId val="95703808"/>
+        <c:axId val="95705344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127034112"/>
+        <c:axId val="95703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127035648"/>
+        <c:crossAx val="95705344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127035648"/>
+        <c:axId val="95705344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +614,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127034112"/>
+        <c:crossAx val="95703808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -624,7 +628,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -952,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2073,45 +2077,62 @@
       <c r="F16" s="11">
         <v>12</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="11">
+        <v>2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
       <c r="J16" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
       <c r="N16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P16" s="11">
         <v>15</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="11">
+        <v>15</v>
+      </c>
       <c r="R16" s="11">
         <v>100</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11">
-        <v>100</v>
-      </c>
+      <c r="S16" s="11">
+        <v>100</v>
+      </c>
+      <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11"/>
+        <v>315</v>
+      </c>
+      <c r="X16" s="11">
+        <f>SUM($W$3:W16)+SUM(V17:$V$23)</f>
+        <v>7325</v>
+      </c>
       <c r="Y16" s="11">
         <v>8675</v>
       </c>
@@ -2217,11 +2238,13 @@
         <v>100</v>
       </c>
       <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="T18" s="11">
+        <v>100</v>
+      </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="3"/>
@@ -2510,7 +2533,7 @@
       </c>
       <c r="W24" s="5">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>3730</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2520,15 +2543,15 @@
       </c>
       <c r="G25">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>44.5</v>
+        <v>48.5</v>
       </c>
       <c r="H25">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="I25">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>40.5</v>
+        <v>43.5</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="12792" windowHeight="6576"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="16080" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -127,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +384,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -408,7 +417,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -423,6 +434,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -435,6 +447,7 @@
               <c:symbol val="diamond"/>
               <c:size val="4"/>
             </c:marker>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -476,17 +489,18 @@
                   <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7535</c:v>
+                  <c:v>7595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7390</c:v>
+                  <c:v>7450</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7325</c:v>
+                  <c:v>7385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -567,30 +581,44 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95703808"/>
-        <c:axId val="95705344"/>
+        <c:smooth val="0"/>
+        <c:axId val="178600960"/>
+        <c:axId val="178627328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95703808"/>
+        <c:axId val="178600960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95705344"/>
+        <c:crossAx val="178627328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95705344"/>
+        <c:axId val="178627328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -610,11 +638,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95703808"/>
+        <c:crossAx val="178600960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -622,9 +652,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -744,6 +776,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -778,6 +811,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,42 +987,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="21.109375" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="22.5546875" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
     <col min="24" max="24" width="21" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="15.44140625" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1096,7 +1130,7 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>1</f>
         <v>1</v>
@@ -1168,7 +1202,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1243,7 +1277,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1316,7 +1350,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1387,7 +1421,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1454,7 +1488,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1533,7 +1567,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1610,7 +1644,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1687,7 +1721,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1766,7 +1800,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1845,7 +1879,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1916,7 +1950,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1948,14 +1982,16 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="11">
+        <v>3</v>
+      </c>
       <c r="N14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" s="11">
         <v>15</v>
@@ -1977,17 +2013,17 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="X14" s="11">
         <f>SUM($W$3:W14)+SUM(V15:$V$23)</f>
-        <v>7535</v>
+        <v>7595</v>
       </c>
       <c r="Y14" s="11">
         <v>8675</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2054,13 +2090,13 @@
       </c>
       <c r="X15" s="11">
         <f>SUM($W$3:W15)+SUM(V16:$V$23)</f>
-        <v>7390</v>
+        <v>7450</v>
       </c>
       <c r="Y15" s="11">
         <v>8675</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2131,13 +2167,13 @@
       </c>
       <c r="X16" s="11">
         <f>SUM($W$3:W16)+SUM(V17:$V$23)</f>
-        <v>7325</v>
+        <v>7385</v>
       </c>
       <c r="Y16" s="11">
         <v>8675</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -2161,16 +2197,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2</v>
+      </c>
+      <c r="M17" s="11">
+        <v>3</v>
+      </c>
       <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P17" s="11">
         <v>15</v>
@@ -2188,14 +2230,14 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="11">
         <v>8675</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -2255,7 +2297,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2315,7 +2357,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2373,7 +2415,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2433,7 +2475,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -2491,7 +2533,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="G23" s="2" t="s">
         <v>30</v>
@@ -2513,7 +2555,7 @@
       </c>
       <c r="W23" s="19"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="G24" s="23" t="s">
         <v>10</v>
@@ -2533,10 +2575,10 @@
       </c>
       <c r="W24" s="5">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>4045</v>
+        <v>4205</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="F25" s="29" t="s">
         <v>33</v>
@@ -2547,11 +2589,11 @@
       </c>
       <c r="H25">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
       <c r="I25">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -2564,7 +2606,7 @@
       </c>
       <c r="W25" s="21"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="F26" s="29" t="s">
         <v>34</v>
@@ -2582,11 +2624,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2633,24 +2675,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="16080" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13545" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -593,11 +594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178600960"/>
-        <c:axId val="178627328"/>
+        <c:axId val="160146560"/>
+        <c:axId val="160148096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178600960"/>
+        <c:axId val="160146560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +607,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178627328"/>
+        <c:crossAx val="160148096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178627328"/>
+        <c:axId val="160148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +645,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178600960"/>
+        <c:crossAx val="160146560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,7 +992,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,29 +2191,35 @@
       <c r="F17" s="11">
         <v>12</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2</v>
+      </c>
       <c r="J17" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P17" s="11">
         <v>15</v>
@@ -2230,7 +2237,7 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="11">
@@ -2575,7 +2582,7 @@
       </c>
       <c r="W24" s="5">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>4205</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2585,15 +2592,15 @@
       </c>
       <c r="G25">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>48.5</v>
+        <v>53.5</v>
       </c>
       <c r="H25">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>42.5</v>
+        <v>45.5</v>
       </c>
       <c r="I25">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>49.5</v>
+        <v>52.5</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -498,6 +497,9 @@
                 <c:pt idx="13">
                   <c:v>7385</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>7540</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -594,11 +596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160146560"/>
-        <c:axId val="160148096"/>
+        <c:axId val="186657408"/>
+        <c:axId val="186847616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160146560"/>
+        <c:axId val="186657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +609,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160148096"/>
+        <c:crossAx val="186847616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -615,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160148096"/>
+        <c:axId val="186847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160146560"/>
+        <c:crossAx val="186657408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,7 +994,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,43 +2194,47 @@
         <v>12</v>
       </c>
       <c r="G17" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P17" s="11">
         <v>15</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="11">
+        <v>15</v>
+      </c>
       <c r="R17" s="11">
         <v>100</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="S17" s="11">
+        <v>100</v>
+      </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11">
@@ -2237,9 +2243,12 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="X17" s="11"/>
+        <v>535</v>
+      </c>
+      <c r="X17" s="11">
+        <f>SUM($W$3:W17)+SUM(V18:$V$23)</f>
+        <v>7540</v>
+      </c>
       <c r="Y17" s="11">
         <v>8675</v>
       </c>
@@ -2582,7 +2591,7 @@
       </c>
       <c r="W24" s="5">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>4425</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2592,7 +2601,7 @@
       </c>
       <c r="G25">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="H25">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
@@ -2600,7 +2609,7 @@
       </c>
       <c r="I25">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>52.5</v>
+        <v>56.5</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -480,25 +480,28 @@
                   <c:v>8270</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8170</c:v>
+                  <c:v>8270</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8205</c:v>
+                  <c:v>8305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7900</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7595</c:v>
+                  <c:v>7695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7450</c:v>
+                  <c:v>7550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7385</c:v>
+                  <c:v>7485</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7540</c:v>
+                  <c:v>7520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,11 +599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186657408"/>
-        <c:axId val="186847616"/>
+        <c:axId val="180028928"/>
+        <c:axId val="180030464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186657408"/>
+        <c:axId val="180028928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +612,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186847616"/>
+        <c:crossAx val="180030464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186847616"/>
+        <c:axId val="180030464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +650,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186657408"/>
+        <c:crossAx val="180028928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -994,7 +997,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1475,9 @@
       <c r="R7" s="11">
         <v>100</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11">
@@ -1786,18 +1791,20 @@
       <c r="T11" s="11">
         <v>100</v>
       </c>
-      <c r="U11" s="11"/>
+      <c r="U11" s="11">
+        <v>100</v>
+      </c>
       <c r="V11" s="11">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="X11" s="11">
         <f>SUM($W$3:W11)+SUM(V12:$V$23)</f>
-        <v>8170</v>
+        <v>8270</v>
       </c>
       <c r="Y11" s="11">
         <v>8675</v>
@@ -1876,7 +1883,7 @@
       </c>
       <c r="X12" s="11">
         <f>SUM($W$3:W12)+SUM(V13:$V$23)</f>
-        <v>8205</v>
+        <v>8305</v>
       </c>
       <c r="Y12" s="11">
         <v>8675</v>
@@ -1947,7 +1954,7 @@
       </c>
       <c r="X13" s="11">
         <f>SUM($W$3:W13)+SUM(V14:$V$23)</f>
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="Y13" s="11">
         <v>8675</v>
@@ -2020,7 +2027,7 @@
       </c>
       <c r="X14" s="11">
         <f>SUM($W$3:W14)+SUM(V15:$V$23)</f>
-        <v>7595</v>
+        <v>7695</v>
       </c>
       <c r="Y14" s="11">
         <v>8675</v>
@@ -2093,7 +2100,7 @@
       </c>
       <c r="X15" s="11">
         <f>SUM($W$3:W15)+SUM(V16:$V$23)</f>
-        <v>7450</v>
+        <v>7550</v>
       </c>
       <c r="Y15" s="11">
         <v>8675</v>
@@ -2170,7 +2177,7 @@
       </c>
       <c r="X16" s="11">
         <f>SUM($W$3:W16)+SUM(V17:$V$23)</f>
-        <v>7385</v>
+        <v>7485</v>
       </c>
       <c r="Y16" s="11">
         <v>8675</v>
@@ -2207,21 +2214,21 @@
         <v>3</v>
       </c>
       <c r="K17" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" s="11">
         <v>4</v>
       </c>
       <c r="M17" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P17" s="11">
         <v>15</v>
@@ -2243,11 +2250,11 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" si="3"/>
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="X17" s="11">
         <f>SUM($W$3:W17)+SUM(V18:$V$23)</f>
-        <v>7540</v>
+        <v>7520</v>
       </c>
       <c r="Y17" s="11">
         <v>8675</v>
@@ -2270,45 +2277,62 @@
       <c r="F18" s="11">
         <v>12</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
       <c r="J18" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="K18" s="11">
+        <v>9</v>
+      </c>
+      <c r="L18" s="11">
+        <v>5</v>
+      </c>
+      <c r="M18" s="11">
+        <v>11</v>
+      </c>
       <c r="N18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="P18" s="11">
         <v>15</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="11">
+        <v>15</v>
+      </c>
       <c r="R18" s="11">
         <v>100</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11">
-        <v>100</v>
-      </c>
+      <c r="S18" s="11">
+        <v>100</v>
+      </c>
+      <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="11"/>
+        <v>675</v>
+      </c>
+      <c r="X18" s="11">
+        <f>SUM($W$3:W18)+SUM(V19:$V$23)</f>
+        <v>7815</v>
+      </c>
       <c r="Y18" s="11">
         <v>8675</v>
       </c>
@@ -2339,16 +2363,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
       <c r="N19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="11">
         <v>15</v>
@@ -2358,15 +2388,17 @@
         <v>100</v>
       </c>
       <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="T19" s="11">
+        <v>100</v>
+      </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" s="11">
@@ -2591,7 +2623,7 @@
       </c>
       <c r="W24" s="5">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>4640</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2601,15 +2633,15 @@
       </c>
       <c r="G25">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>54.5</v>
+        <v>64.5</v>
       </c>
       <c r="H25">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>45.5</v>
+        <v>52.5</v>
       </c>
       <c r="I25">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>56.5</v>
+        <v>64.5</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -178,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -333,14 +333,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -361,13 +371,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,6 +515,9 @@
                 <c:pt idx="15">
                   <c:v>7815</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>8030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -599,11 +614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180028928"/>
-        <c:axId val="180030464"/>
+        <c:axId val="185612160"/>
+        <c:axId val="185613696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180028928"/>
+        <c:axId val="185612160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +627,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180030464"/>
+        <c:crossAx val="185613696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -620,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180030464"/>
+        <c:axId val="185613696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180028928"/>
+        <c:crossAx val="185612160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -996,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,1645 +1044,1652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="24" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="13"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42401</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10">
         <v>2.5</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2.5</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2.5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>G3+H3+I3</f>
         <v>7.5</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
         <f>K3+M3+L3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <f>J3+N3</f>
         <v>7.5</v>
       </c>
-      <c r="P3" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>15</v>
-      </c>
-      <c r="R3" s="11">
-        <v>100</v>
-      </c>
-      <c r="S3" s="11">
-        <v>100</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11">
+      <c r="P3" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>15</v>
+      </c>
+      <c r="R3" s="10">
+        <v>100</v>
+      </c>
+      <c r="S3" s="10">
+        <v>100</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10">
         <f>20*D3+22.5*E3+P3+T3+R3</f>
         <v>355</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <f>J3*20+N3*20+Q3+U3+S3</f>
         <v>265</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <f>SUM(W3,V4:V23)</f>
         <v>8575</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>42408</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10">
         <v>2.5</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>2.5</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2.5</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <f>G4+H4+I4</f>
         <v>7.5</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
         <f t="shared" ref="N4:N22" si="0">K4+M4+L4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <f t="shared" ref="O4:O22" si="1">J4+N4</f>
         <v>7.5</v>
       </c>
-      <c r="P4" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>15</v>
-      </c>
-      <c r="R4" s="11">
-        <v>100</v>
-      </c>
-      <c r="S4" s="11">
-        <v>100</v>
-      </c>
-      <c r="T4" s="11">
-        <v>100</v>
-      </c>
-      <c r="U4" s="11">
-        <v>100</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="P4" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>15</v>
+      </c>
+      <c r="R4" s="10">
+        <v>100</v>
+      </c>
+      <c r="S4" s="10">
+        <v>100</v>
+      </c>
+      <c r="T4" s="10">
+        <v>100</v>
+      </c>
+      <c r="U4" s="10">
+        <v>100</v>
+      </c>
+      <c r="V4" s="10">
         <f t="shared" ref="V4:V22" si="2">20*D4+22.5*E4+P4+T4+R4</f>
         <v>455</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <f t="shared" ref="W4:W22" si="3">J4*20+N4*20+Q4+U4+S4</f>
         <v>365</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <f>SUM(W3,W4,V5:V23)</f>
         <v>8485</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>42415</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="D5" s="10">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10">
         <v>4</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>4</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>4</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f>G5+H5+I5</f>
         <v>12</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P5" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>15</v>
-      </c>
-      <c r="R5" s="11">
-        <v>100</v>
-      </c>
-      <c r="S5" s="11">
-        <v>100</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11">
+      <c r="P5" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>15</v>
+      </c>
+      <c r="R5" s="10">
+        <v>100</v>
+      </c>
+      <c r="S5" s="10">
+        <v>100</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10">
         <f t="shared" si="2"/>
         <v>355</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="10">
         <f>SUM(W3:W5,V6:V23)</f>
         <v>8485</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>42422</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>4</v>
       </c>
-      <c r="F6" s="11">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="10">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10">
         <v>4.5</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>4.5</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>4.5</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <f t="shared" ref="J6:J22" si="4">G6+H6+I6</f>
         <v>13.5</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="P6" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>15</v>
-      </c>
-      <c r="R6" s="11">
-        <v>100</v>
-      </c>
-      <c r="S6" s="11">
-        <v>100</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11">
+      <c r="P6" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>15</v>
+      </c>
+      <c r="R6" s="10">
+        <v>100</v>
+      </c>
+      <c r="S6" s="10">
+        <v>100</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10">
         <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <f t="shared" si="3"/>
         <v>385</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="10">
         <f>SUM(W3:W6,V7:V23)</f>
         <v>8505</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>42429</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
         <v>8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="F7" s="10">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11">
-        <v>100</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11">
+      <c r="P7" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10">
+        <v>100</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10">
         <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="10">
         <f>SUM(W3:W7)+SUM(V8:V23)</f>
         <v>8140</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>42436</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-      <c r="F8" s="11">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="10">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>4</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>3</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>1</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>1</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P8" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>15</v>
-      </c>
-      <c r="R8" s="11">
-        <v>100</v>
-      </c>
-      <c r="S8" s="11">
-        <v>100</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11">
+      <c r="P8" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>15</v>
+      </c>
+      <c r="R8" s="10">
+        <v>100</v>
+      </c>
+      <c r="S8" s="10">
+        <v>100</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="10">
         <f t="shared" si="3"/>
         <v>455</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="10">
         <f>SUM(W3:W8)+SUM(V9:V23)</f>
         <v>8225</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>42443</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="11">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="10">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10">
         <v>4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>4</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>0.5</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>0.5</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P9" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>15</v>
-      </c>
-      <c r="R9" s="11">
-        <v>100</v>
-      </c>
-      <c r="S9" s="11">
-        <v>100</v>
-      </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11">
+      <c r="P9" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>15</v>
+      </c>
+      <c r="R9" s="10">
+        <v>100</v>
+      </c>
+      <c r="S9" s="10">
+        <v>100</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <f t="shared" si="3"/>
         <v>395</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="10">
         <f>SUM($W$3:$W$9)+SUM($V$10:$V$23)</f>
         <v>8250</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>42450</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>8</v>
       </c>
-      <c r="F10" s="11">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="10">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>3</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>3</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>1</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P10" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>15</v>
-      </c>
-      <c r="R10" s="11">
-        <v>100</v>
-      </c>
-      <c r="S10" s="11">
-        <v>100</v>
-      </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11">
+      <c r="P10" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>15</v>
+      </c>
+      <c r="R10" s="10">
+        <v>100</v>
+      </c>
+      <c r="S10" s="10">
+        <v>100</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="10">
         <f t="shared" si="3"/>
         <v>395</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="10">
         <f>SUM($W$3:W10)+SUM(V11:$V$23)</f>
         <v>8270</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>42457</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>8</v>
       </c>
-      <c r="F11" s="11">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="F11" s="10">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>4</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>2.5</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>3.5</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P11" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>15</v>
-      </c>
-      <c r="R11" s="11">
-        <v>100</v>
-      </c>
-      <c r="S11" s="11">
-        <v>100</v>
-      </c>
-      <c r="T11" s="11">
-        <v>100</v>
-      </c>
-      <c r="U11" s="11">
-        <v>100</v>
-      </c>
-      <c r="V11" s="11">
+      <c r="P11" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>15</v>
+      </c>
+      <c r="R11" s="10">
+        <v>100</v>
+      </c>
+      <c r="S11" s="10">
+        <v>100</v>
+      </c>
+      <c r="T11" s="10">
+        <v>100</v>
+      </c>
+      <c r="U11" s="10">
+        <v>100</v>
+      </c>
+      <c r="V11" s="10">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="10">
         <f t="shared" si="3"/>
         <v>475</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="10">
         <f>SUM($W$3:W11)+SUM(V12:$V$23)</f>
         <v>8270</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>42464</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>10</v>
       </c>
-      <c r="F12" s="11">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="10">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>4</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>4</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>4</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P12" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>15</v>
-      </c>
-      <c r="R12" s="11">
-        <v>100</v>
-      </c>
-      <c r="S12" s="11">
-        <v>100</v>
-      </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11">
+      <c r="P12" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>15</v>
+      </c>
+      <c r="R12" s="10">
+        <v>100</v>
+      </c>
+      <c r="S12" s="10">
+        <v>100</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="10">
         <f t="shared" si="3"/>
         <v>415</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="10">
         <f>SUM($W$3:W12)+SUM(V13:$V$23)</f>
         <v>8305</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>42471</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>10</v>
       </c>
-      <c r="F13" s="11">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="10">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>1</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P13" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>15</v>
-      </c>
-      <c r="R13" s="11">
-        <v>100</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11">
+      <c r="P13" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>15</v>
+      </c>
+      <c r="R13" s="10">
+        <v>100</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="10">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="10">
         <f>SUM($W$3:W13)+SUM(V14:$V$23)</f>
         <v>8000</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
         <v>42478</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="F14" s="10">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
         <v>3</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P14" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>15</v>
-      </c>
-      <c r="R14" s="11">
-        <v>100</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0</v>
-      </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11">
+      <c r="P14" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>15</v>
+      </c>
+      <c r="R14" s="10">
+        <v>100</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="10">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="10">
         <f>SUM($W$3:W14)+SUM(V15:$V$23)</f>
         <v>7695</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>42485</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>10</v>
       </c>
-      <c r="F15" s="11">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="10">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10">
         <v>2</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
         <v>2</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P15" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>15</v>
-      </c>
-      <c r="R15" s="11">
-        <v>100</v>
-      </c>
-      <c r="S15" s="11">
-        <v>100</v>
-      </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11">
+      <c r="P15" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>15</v>
+      </c>
+      <c r="R15" s="10">
+        <v>100</v>
+      </c>
+      <c r="S15" s="10">
+        <v>100</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="10">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="10">
         <f>SUM($W$3:W15)+SUM(V16:$V$23)</f>
         <v>7550</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>42492</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>10</v>
       </c>
-      <c r="F16" s="11">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="10">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>2</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>1</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>1</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P16" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>15</v>
-      </c>
-      <c r="R16" s="11">
-        <v>100</v>
-      </c>
-      <c r="S16" s="11">
-        <v>100</v>
-      </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11">
+      <c r="P16" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>15</v>
+      </c>
+      <c r="R16" s="10">
+        <v>100</v>
+      </c>
+      <c r="S16" s="10">
+        <v>100</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="10">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="10">
         <f>SUM($W$3:W16)+SUM(V17:$V$23)</f>
         <v>7485</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
         <v>42499</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>10</v>
       </c>
-      <c r="F17" s="11">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="10">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>1</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>4</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>4</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>4</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P17" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>15</v>
-      </c>
-      <c r="R17" s="11">
-        <v>100</v>
-      </c>
-      <c r="S17" s="11">
-        <v>100</v>
-      </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11">
+      <c r="P17" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>15</v>
+      </c>
+      <c r="R17" s="10">
+        <v>100</v>
+      </c>
+      <c r="S17" s="10">
+        <v>100</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="10">
         <f t="shared" si="3"/>
         <v>415</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="10">
         <f>SUM($W$3:W17)+SUM(V18:$V$23)</f>
         <v>7520</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>42506</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>10</v>
       </c>
-      <c r="F18" s="11">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="F18" s="10">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>1</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>1</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>9</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>5</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>11</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="10">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="P18" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>15</v>
-      </c>
-      <c r="R18" s="11">
-        <v>100</v>
-      </c>
-      <c r="S18" s="11">
-        <v>100</v>
-      </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11">
+      <c r="P18" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>15</v>
+      </c>
+      <c r="R18" s="10">
+        <v>100</v>
+      </c>
+      <c r="S18" s="10">
+        <v>100</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="10">
         <f t="shared" si="3"/>
         <v>675</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="10">
         <f>SUM($W$3:W18)+SUM(V19:$V$23)</f>
         <v>7815</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="10">
         <v>8675</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>42513</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>10</v>
       </c>
-      <c r="F19" s="11">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11">
+      <c r="F19" s="10">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="11">
-        <v>1</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="K19" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="L19" s="10">
+        <v>6</v>
+      </c>
+      <c r="M19" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O19" s="11">
+        <v>24</v>
+      </c>
+      <c r="O19" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P19" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11">
-        <v>100</v>
-      </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11">
-        <v>100</v>
-      </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11">
+        <v>24</v>
+      </c>
+      <c r="P19" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>15</v>
+      </c>
+      <c r="R19" s="10">
+        <v>100</v>
+      </c>
+      <c r="S19" s="10">
+        <v>100</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="3"/>
+        <v>595</v>
+      </c>
+      <c r="X19" s="10">
+        <f>SUM($W$3:W19)+SUM(V20:$V$23)</f>
+        <v>8030</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>42520</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10">
+        <v>100</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10">
+        <v>100</v>
+      </c>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W20" s="10">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10">
         <v>8675</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12">
-        <v>42520</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>42527</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="10">
         <v>10</v>
       </c>
-      <c r="F20" s="11">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11">
+      <c r="F21" s="10">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11">
-        <v>100</v>
-      </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11">
+      <c r="P21" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10">
+        <v>100</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W21" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10">
         <v>8675</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>42527</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>42534</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="15">
         <v>10</v>
       </c>
-      <c r="F21" s="11">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11">
+      <c r="F22" s="15">
+        <v>12</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P21" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11">
-        <v>100</v>
-      </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11">
+      <c r="P22" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16">
+        <v>100</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W22" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11">
-        <v>8675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15">
-        <v>42534</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16">
-        <v>2</v>
-      </c>
-      <c r="E22" s="16">
-        <v>10</v>
-      </c>
-      <c r="F22" s="16">
-        <v>12</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17">
-        <v>100</v>
-      </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11">
-        <f t="shared" si="2"/>
-        <v>380</v>
-      </c>
-      <c r="W22" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16">
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15">
         <v>8675</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="S23" s="9" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="S23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="25">
+      <c r="T23" s="23">
         <v>1.5</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="17">
         <f>40*22.5</f>
         <v>900</v>
       </c>
-      <c r="W23" s="19"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="4" t="s">
+      <c r="I24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="2">
         <f>SUM(V3,V4,V5,V6,V7,V8,V9,V10,V11,V12,V13,V14,V16,V15,V17,V18,V19,V20,V21,V22,V23)</f>
         <v>8665</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24" s="4">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>5355</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="23">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>64.5</v>
-      </c>
-      <c r="H25">
+        <v>73</v>
+      </c>
+      <c r="H25" s="23">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>52.5</v>
-      </c>
-      <c r="I25">
+        <v>57.5</v>
+      </c>
+      <c r="I25" s="23">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>64.5</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="20">
+      <c r="V25" s="19">
         <f>V24*T23+2.4</f>
         <v>12999.9</v>
       </c>
-      <c r="W25" s="21"/>
+      <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="23">
         <f>SUM($F$3:$F$22)/3</f>
         <v>80</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="23">
         <f t="shared" ref="H26:I26" si="5">SUM($F$3:$F$22)/3</f>
         <v>80</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="23">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -516,7 +516,10 @@
                   <c:v>7815</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8030</c:v>
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185612160"/>
-        <c:axId val="185613696"/>
+        <c:axId val="185676160"/>
+        <c:axId val="185677696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185612160"/>
+        <c:axId val="185676160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185613696"/>
+        <c:crossAx val="185677696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -635,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185613696"/>
+        <c:axId val="185677696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +668,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185612160"/>
+        <c:crossAx val="185676160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1011,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="K19" s="10">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="L19" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19" s="10">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P19" s="10">
         <v>15</v>
@@ -2415,11 +2418,11 @@
       </c>
       <c r="W19" s="10">
         <f t="shared" si="3"/>
-        <v>595</v>
+        <v>755</v>
       </c>
       <c r="X19" s="10">
         <f>SUM($W$3:W19)+SUM(V20:$V$23)</f>
-        <v>8030</v>
+        <v>8190</v>
       </c>
       <c r="Y19" s="10">
         <v>8675</v>
@@ -2449,38 +2452,51 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="10">
+        <v>2</v>
+      </c>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10">
+        <v>0.5</v>
+      </c>
       <c r="N20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P20" s="10">
         <v>15</v>
       </c>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="10">
+        <v>15</v>
+      </c>
       <c r="R20" s="10">
         <v>100</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="10">
+        <v>100</v>
+      </c>
       <c r="T20" s="10">
         <v>100</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="10">
+        <v>100</v>
+      </c>
       <c r="V20" s="10">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="10"/>
+        <v>265</v>
+      </c>
+      <c r="X20" s="10">
+        <f>SUM($W$3:W20)+SUM(V21:$V$23)</f>
+        <v>7975</v>
+      </c>
       <c r="Y20" s="10">
         <v>8675</v>
       </c>
@@ -2645,7 +2661,7 @@
       </c>
       <c r="W24" s="4">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>5890</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2655,15 +2671,15 @@
       </c>
       <c r="G25" s="23">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H25" s="23">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>57.5</v>
+        <v>58.5</v>
       </c>
       <c r="I25" s="23">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>72</v>
+        <v>76.5</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>

--- a/Gestion projet S2.xlsx
+++ b/Gestion projet S2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13545" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="13548" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Jalon 4</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t>Prévu:</t>
+  </si>
+  <si>
+    <t>Coût prévu temporel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -380,6 +383,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,17 +403,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -429,9 +426,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -441,12 +436,11 @@
           <c:x val="7.4261381217349431E-2"/>
           <c:y val="7.3740535479704702E-2"/>
           <c:w val="0.78083130537451662"/>
-          <c:h val="0.83089630762737066"/>
+          <c:h val="0.83089630762737077"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -459,7 +453,6 @@
               <c:symbol val="diamond"/>
               <c:size val="4"/>
             </c:marker>
-            <c:bubble3D val="0"/>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -519,12 +512,11 @@
                   <c:v>8190</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7975</c:v>
+                  <c:v>8325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -605,44 +597,115 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coût prévu temporel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$Z$3:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3090</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3580</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6665</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="185676160"/>
-        <c:axId val="185677696"/>
+        <c:axId val="103010688"/>
+        <c:axId val="103012224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185676160"/>
+        <c:axId val="103010688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185677696"/>
+        <c:crossAx val="103012224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185677696"/>
+        <c:axId val="103012224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -662,13 +725,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185676160"/>
+        <c:crossAx val="103010688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,15 +737,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -800,7 +859,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -835,7 +893,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1011,42 +1068,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
     <col min="9" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.5546875" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" customWidth="1"/>
     <col min="24" max="24" width="21" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -1110,8 +1167,11 @@
       <c r="Y1" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="Z1" s="31" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="5"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1153,8 +1213,9 @@
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="12"/>
+      <c r="Z2" s="32"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="5">
         <f>1</f>
         <v>1</v>
@@ -1225,8 +1286,12 @@
       <c r="Y3" s="10">
         <v>8675</v>
       </c>
+      <c r="Z3" s="33">
+        <f>SUM($W$3:W3)</f>
+        <v>265</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1300,8 +1365,12 @@
       <c r="Y4" s="10">
         <v>8675</v>
       </c>
+      <c r="Z4" s="33">
+        <f>SUM($W$3:W4)</f>
+        <v>630</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1373,8 +1442,12 @@
       <c r="Y5" s="10">
         <v>8675</v>
       </c>
+      <c r="Z5" s="33">
+        <f>SUM($W$3:W5)</f>
+        <v>985</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1444,8 +1517,12 @@
       <c r="Y6" s="10">
         <v>8675</v>
       </c>
+      <c r="Z6" s="33">
+        <f>SUM($W$3:W6)</f>
+        <v>1370</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1513,8 +1590,12 @@
       <c r="Y7" s="10">
         <v>8675</v>
       </c>
+      <c r="Z7" s="33">
+        <f>SUM($W$3:W7)</f>
+        <v>1370</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1592,8 +1673,12 @@
       <c r="Y8" s="10">
         <v>8675</v>
       </c>
+      <c r="Z8" s="33">
+        <f>SUM($W$3:W8)</f>
+        <v>1825</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1669,8 +1754,12 @@
       <c r="Y9" s="10">
         <v>8675</v>
       </c>
+      <c r="Z9" s="33">
+        <f>SUM($W$3:W9)</f>
+        <v>2220</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1746,8 +1835,12 @@
       <c r="Y10" s="10">
         <v>8675</v>
       </c>
+      <c r="Z10" s="33">
+        <f>SUM($W$3:W10)</f>
+        <v>2615</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1827,8 +1920,12 @@
       <c r="Y11" s="10">
         <v>8675</v>
       </c>
+      <c r="Z11" s="33">
+        <f>SUM($W$3:W11)</f>
+        <v>3090</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1906,8 +2003,12 @@
       <c r="Y12" s="10">
         <v>8675</v>
       </c>
+      <c r="Z12" s="33">
+        <f>SUM($W$3:W12)</f>
+        <v>3505</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1977,8 +2078,12 @@
       <c r="Y13" s="10">
         <v>8675</v>
       </c>
+      <c r="Z13" s="33">
+        <f>SUM($W$3:W13)</f>
+        <v>3580</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -2050,8 +2155,12 @@
       <c r="Y14" s="10">
         <v>8675</v>
       </c>
+      <c r="Z14" s="33">
+        <f>SUM($W$3:W14)</f>
+        <v>3655</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2123,8 +2232,12 @@
       <c r="Y15" s="10">
         <v>8675</v>
       </c>
+      <c r="Z15" s="33">
+        <f>SUM($W$3:W15)</f>
+        <v>3890</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2200,8 +2313,12 @@
       <c r="Y16" s="10">
         <v>8675</v>
       </c>
+      <c r="Z16" s="33">
+        <f>SUM($W$3:W16)</f>
+        <v>4205</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2277,8 +2394,12 @@
       <c r="Y17" s="10">
         <v>8675</v>
       </c>
+      <c r="Z17" s="33">
+        <f>SUM($W$3:W17)</f>
+        <v>4620</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2354,8 +2475,12 @@
       <c r="Y18" s="10">
         <v>8675</v>
       </c>
+      <c r="Z18" s="33">
+        <f>SUM($W$3:W18)</f>
+        <v>5295</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2427,8 +2552,12 @@
       <c r="Y19" s="10">
         <v>8675</v>
       </c>
+      <c r="Z19" s="33">
+        <f>SUM($W$3:W19)</f>
+        <v>6050</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2453,19 +2582,21 @@
         <v>0</v>
       </c>
       <c r="K20" s="10">
+        <v>8</v>
+      </c>
+      <c r="L20" s="10">
         <v>2</v>
       </c>
-      <c r="L20" s="10"/>
       <c r="M20" s="10">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="P20" s="10">
         <v>15</v>
@@ -2491,17 +2622,21 @@
       </c>
       <c r="W20" s="10">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>615</v>
       </c>
       <c r="X20" s="10">
         <f>SUM($W$3:W20)+SUM(V21:$V$23)</f>
-        <v>7975</v>
+        <v>8325</v>
       </c>
       <c r="Y20" s="10">
         <v>8675</v>
       </c>
+      <c r="Z20" s="33">
+        <f>SUM($W$3:W20)</f>
+        <v>6665</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2560,8 +2695,12 @@
       <c r="Y21" s="10">
         <v>8675</v>
       </c>
+      <c r="Z21" s="33">
+        <f>SUM($W$3:W21)</f>
+        <v>6665</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -2618,8 +2757,12 @@
       <c r="Y22" s="15">
         <v>8675</v>
       </c>
+      <c r="Z22" s="34">
+        <f>SUM($W$3:W22)</f>
+        <v>6665</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="B23" s="1"/>
       <c r="G23" s="28" t="s">
         <v>30</v>
@@ -2641,7 +2784,7 @@
       </c>
       <c r="W23" s="18"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="B24" s="1"/>
       <c r="G24" s="22" t="s">
         <v>10</v>
@@ -2661,25 +2804,25 @@
       </c>
       <c r="W24" s="4">
         <f>SUM(W4,W3,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W17,W16,W18,W19,W20,W21,W22,W23)</f>
-        <v>6315</v>
+        <v>6665</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="B25" s="1"/>
       <c r="F25" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="23">
         <f>SUM(G3:G22)+SUM(K3:K22)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H25" s="23">
         <f>SUM(H3:H22)+SUM(L3:L22)</f>
-        <v>58.5</v>
+        <v>60.5</v>
       </c>
       <c r="I25" s="23">
         <f>SUM(I3:I22)+SUM(M3:M22)</f>
-        <v>76.5</v>
+        <v>86</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -2692,7 +2835,7 @@
       </c>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="B26" s="1"/>
       <c r="F26" s="27" t="s">
         <v>34</v>
@@ -2710,11 +2853,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="B27" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:26" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2761,24 +2904,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
